--- a/documents/Processor_Criteria.xlsx
+++ b/documents/Processor_Criteria.xlsx
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="183">
   <si>
     <t xml:space="preserve">Manufacturer</t>
   </si>
@@ -623,6 +623,65 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.ti.com/lit/ds/symlink/msp430fr5969-sp.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMS320F2838x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual Core C28X + ARM M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">925 DMIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x Single precision
+2x Double precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Flash: 3x512KB
+External &gt;= 50MB via interface </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x EMIF – NOR FLASH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal: 2x 44KB
+Global: 128KB
+ARM M4: 96KB
+External: Via EMIF &gt;= 64MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMIF ASRAM / SDRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDCard via SPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40 to 125</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFFF3333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">900mW</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ti.com/lit/ds/symlink/tms320f28384d.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">ST Microelectronics</t>
@@ -1184,6 +1243,55 @@
     <t xml:space="preserve">https://www.renesas.com/eu/en/img/products/microcontrollers-microprocessors/rx/rx700/rx72m/r01ds0332ej0100-rx72m.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">Xilinx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtex 5QV for space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum 8A. Depends on the design. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEU Latch-up Immunity (LETTH)
+Configuration Cell Upset Rate (GEO)
+Functional Interrupt Rate (GEO)
+Total Ionizing Dose
+Dose Rate Upset
+Dose Rate Latch-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 100 Mev-cm2/mg
+&lt; 3.8 x 10-10 Upsets/Bit-Day
+&lt; 10-10 Upsets/Bit-Day
+&gt; 1 Mrad(Si)
+&gt; 109 Rad(Si)/s
+&gt; 1010 Rad(Si)/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xilinx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtex XQR4VF for Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x PowerPC 440 CPU cores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microchip/Microsemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT ProASIC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSX-SU</t>
+  </si>
+  <si>
     <t xml:space="preserve">e.g. ARM Cortex M7</t>
   </si>
   <si>
@@ -1203,7 +1311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1320,6 +1428,13 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF3333"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1592,11 +1707,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="38" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="2" xfId="38" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="2" xfId="38" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="38" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1683,7 +1798,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF44546A"/>
       <rgbColor rgb="FF333333"/>
@@ -1697,10 +1812,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AY27"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE4" activeCellId="0" sqref="AE4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1725,7 +1842,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="23.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="30.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="35.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="0" width="14.43"/>
@@ -2279,33 +2397,33 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="4" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -2319,20 +2437,22 @@
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="5"/>
+      <c r="V7" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="4" t="s">
-        <v>82</v>
+      <c r="Y7" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="5"/>
+      <c r="AB7" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="AE7" s="13"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
@@ -2352,80 +2472,74 @@
       <c r="AV7" s="4"/>
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
-      <c r="AY7" s="4"/>
+      <c r="AY7" s="13" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="4" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="5" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="13" t="s">
-        <v>90</v>
+      <c r="Y8" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="17" t="s">
-        <v>91</v>
-      </c>
+      <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF8" s="4"/>
-      <c r="AG8" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
-      <c r="AK8" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
-      <c r="AM8" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
@@ -2435,67 +2549,61 @@
       <c r="AV8" s="4"/>
       <c r="AW8" s="5"/>
       <c r="AX8" s="5"/>
-      <c r="AY8" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="AY8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="5" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="17" t="s">
-        <v>104</v>
+      <c r="AB9" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF9" s="4"/>
       <c r="AG9" s="5" t="s">
@@ -2525,18 +2633,18 @@
       <c r="AW9" s="5"/>
       <c r="AX9" s="5"/>
       <c r="AY9" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>108</v>
@@ -2564,27 +2672,27 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="17" t="s">
-        <v>115</v>
+      <c r="AB10" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AF10" s="4"/>
       <c r="AG10" s="5" t="s">
@@ -2605,64 +2713,60 @@
         <v>48</v>
       </c>
       <c r="AP10" s="5"/>
-      <c r="AQ10" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
-      <c r="AW10" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="AW10" s="5"/>
       <c r="AX10" s="5"/>
       <c r="AY10" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="5" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -2671,101 +2775,109 @@
       </c>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="17" t="s">
+      <c r="AB11" s="18" t="s">
         <v>127</v>
       </c>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="4" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="5"/>
+      <c r="AG11" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AH11" s="5"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
-      <c r="AK11" s="5" t="s">
+      <c r="AK11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="4" t="s">
+      <c r="AM11" s="10" t="s">
         <v>50</v>
       </c>
       <c r="AN11" s="4"/>
-      <c r="AO11" s="5"/>
+      <c r="AO11" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="4"/>
+      <c r="AQ11" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="AR11" s="4"/>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
-      <c r="AW11" s="5"/>
+      <c r="AW11" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="AX11" s="5"/>
-      <c r="AY11" s="4"/>
+      <c r="AY11" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="5" t="s">
-        <v>137</v>
+      <c r="AB12" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="4" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
@@ -2777,13 +2889,9 @@
         <v>50</v>
       </c>
       <c r="AN12" s="4"/>
-      <c r="AO12" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
@@ -2791,63 +2899,65 @@
       <c r="AV12" s="4"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="4" t="s">
+      <c r="AY12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="5"/>
+      <c r="V13" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="17" t="s">
-        <v>150</v>
+      <c r="AB13" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AF13" s="4"/>
       <c r="AG13" s="5" t="s">
@@ -2857,7 +2967,7 @@
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="5" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="AL13" s="5"/>
       <c r="AM13" s="4" t="s">
@@ -2868,8 +2978,8 @@
         <v>48</v>
       </c>
       <c r="AP13" s="5"/>
-      <c r="AQ13" s="13" t="s">
-        <v>152</v>
+      <c r="AQ13" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="AR13" s="4"/>
       <c r="AS13" s="5"/>
@@ -2879,26 +2989,42 @@
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
       <c r="AY13" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="4"/>
@@ -2907,25 +3033,41 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="5"/>
+      <c r="AB14" s="18" t="s">
+        <v>162</v>
+      </c>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="4"/>
+      <c r="AE14" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="AF14" s="4"/>
-      <c r="AG14" s="5"/>
+      <c r="AG14" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AH14" s="5"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
-      <c r="AK14" s="5"/>
+      <c r="AK14" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="4"/>
+      <c r="AM14" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="AN14" s="4"/>
-      <c r="AO14" s="5"/>
+      <c r="AO14" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AP14" s="5"/>
-      <c r="AQ14" s="4"/>
+      <c r="AQ14" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="AR14" s="4"/>
       <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
@@ -2933,11 +3075,17 @@
       <c r="AV14" s="4"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
-      <c r="AY14" s="4"/>
+      <c r="AY14" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
+    <row r="15" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2963,18 +3111,26 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="5"/>
+      <c r="AB15" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
+      <c r="AE15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="4"/>
+      <c r="AM15" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AN15" s="4"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
@@ -2989,9 +3145,15 @@
       <c r="AY15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3027,7 +3189,9 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="4"/>
+      <c r="AM16" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AN16" s="4"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
@@ -3042,8 +3206,12 @@
       <c r="AY16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -3095,8 +3263,12 @@
       <c r="AY17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -3148,8 +3320,12 @@
       <c r="AY18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -3201,8 +3377,12 @@
       <c r="AY19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -3360,13 +3540,9 @@
       <c r="AY22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3418,11 +3594,11 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -3475,11 +3651,11 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -3532,11 +3708,11 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -3588,9 +3764,13 @@
       <c r="AY26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3640,6 +3820,59 @@
       <c r="AX27" s="5"/>
       <c r="AY27" s="4"/>
     </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="D1:F1"/>
@@ -3666,12 +3899,13 @@
     <hyperlink ref="AY4" r:id="rId2" display="http://ww1.microchip.com/downloads/en/DeviceDoc/SAMV71Q21RT-Radiation-Tolerant-32-Bit-Arm-Cortex-M7-MCU-Data-Sheet-DS60001555B.pdf"/>
     <hyperlink ref="AY5" r:id="rId3" display="http://ww1.microchip.com/downloads/en/DeviceDoc/PIC32MZ-EF-%20Family-DS60001320F.pdf"/>
     <hyperlink ref="AY6" r:id="rId4" display="http://www.ti.com/lit/ds/symlink/msp430fr5969-sp.pdf"/>
-    <hyperlink ref="AY8" r:id="rId5" display="https://www.st.com/content/ccc/resource/technical/document/reference_manual/3d/6d/5a/66/b4/99/40/d4/DM00031020.pdf/files/DM00031020.pdf/jcr:content/translations/en.DM00031020.pdf"/>
-    <hyperlink ref="AY9" r:id="rId6" display="https://www.st.com/content/st_com/en/products/microcontrollers-microprocessors/stm32-32-bit-arm-cortex-mcus/stm32-high-performance-mcus/stm32f7-series.html"/>
-    <hyperlink ref="AY10" r:id="rId7" display="https://www.st.com/content/st_com/en/products/microcontrollers-microprocessors/stm32-32-bit-arm-cortex-mcus/stm32-high-performance-mcus/stm32h7-series.html"/>
-    <hyperlink ref="AB12" r:id="rId8" display="https://www.nxp.com/docs/en/application-note/AN12245.pdf"/>
-    <hyperlink ref="AY12" r:id="rId9" display="https://www.nxp.com/docs/en/nxp/data-sheets/IMXRT1060IEC.pdf"/>
-    <hyperlink ref="AY13" r:id="rId10" display="https://www.renesas.com/eu/en/img/products/microcontrollers-microprocessors/rx/rx700/rx72m/r01ds0332ej0100-rx72m.pdf"/>
+    <hyperlink ref="AY7" r:id="rId5" display="http://www.ti.com/lit/ds/symlink/tms320f28384d.pdf"/>
+    <hyperlink ref="AY9" r:id="rId6" display="https://www.st.com/content/ccc/resource/technical/document/reference_manual/3d/6d/5a/66/b4/99/40/d4/DM00031020.pdf/files/DM00031020.pdf/jcr:content/translations/en.DM00031020.pdf"/>
+    <hyperlink ref="AY10" r:id="rId7" display="https://www.st.com/content/st_com/en/products/microcontrollers-microprocessors/stm32-32-bit-arm-cortex-mcus/stm32-high-performance-mcus/stm32f7-series.html"/>
+    <hyperlink ref="AY11" r:id="rId8" display="https://www.st.com/content/st_com/en/products/microcontrollers-microprocessors/stm32-32-bit-arm-cortex-mcus/stm32-high-performance-mcus/stm32h7-series.html"/>
+    <hyperlink ref="AB13" r:id="rId9" display="https://www.nxp.com/docs/en/application-note/AN12245.pdf"/>
+    <hyperlink ref="AY13" r:id="rId10" display="https://www.nxp.com/docs/en/nxp/data-sheets/IMXRT1060IEC.pdf"/>
+    <hyperlink ref="AY14" r:id="rId11" display="https://www.renesas.com/eu/en/img/products/microcontrollers-microprocessors/rx/rx700/rx72m/r01ds0332ej0100-rx72m.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3680,6 +3914,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>